--- a/1_ML_Combined_Courses/Practice/Excel/2_Simple_Neurons.xlsx
+++ b/1_ML_Combined_Courses/Practice/Excel/2_Simple_Neurons.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\CourseraPlus\1_ML_Combined_Courses\Practice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15090FF4-46DB-4DE4-8B05-04877394977A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA0EB66-5912-4F82-9151-D73C560A5501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BEFB4AB8-46B2-4D36-AF54-8C400EF49FEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BEFB4AB8-46B2-4D36-AF54-8C400EF49FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Base Equation</t>
   </si>
@@ -84,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -226,9 +227,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DFD504-68E3-472F-8409-FCED07A77F6E}">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -796,4 +800,34 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9E158D-22C4-4E13-AB0E-226916541DD8}">
+  <dimension ref="D4:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>